--- a/1-策略开发/1-开发中的策略/14-oscillator_driver/oscillator_drive参数优化记录.xlsx
+++ b/1-策略开发/1-开发中的策略/14-oscillator_driver/oscillator_drive参数优化记录.xlsx
@@ -4,21 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="478"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="478" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1-参数优化区间设置" sheetId="3" r:id="rId1"/>
-    <sheet name="1-3年期滚动回测结果" sheetId="6" r:id="rId2"/>
+    <sheet name="1-4个月滚动回测结果" sheetId="6" r:id="rId2"/>
+    <sheet name="2-参数优化区间设置" sheetId="7" r:id="rId3"/>
+    <sheet name="2-4个月滚动回测结果" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1-3年期滚动回测结果'!$A$1:$AT$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1-4个月滚动回测结果'!$A$1:$AX$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2-4个月滚动回测结果'!$A$1:$AX$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="69">
   <si>
     <t>multi_timeframe参数优化区间设置</t>
   </si>
@@ -41,22 +44,28 @@
     <t>单个参数测试数</t>
   </si>
   <si>
-    <t>boll_window = 41</t>
-  </si>
-  <si>
-    <t>boll_dev = 2</t>
-  </si>
-  <si>
-    <t>dis_open = 5</t>
-  </si>
-  <si>
-    <t>interval = 25</t>
-  </si>
-  <si>
-    <t>atr_window = 15</t>
-  </si>
-  <si>
-    <t>sl_multipler = 2.1</t>
+    <t>boll_window</t>
+  </si>
+  <si>
+    <t>boll_dev</t>
+  </si>
+  <si>
+    <t>atr_window</t>
+  </si>
+  <si>
+    <t>risk_level</t>
+  </si>
+  <si>
+    <t>sl_multipler</t>
+  </si>
+  <si>
+    <t>dis_open</t>
+  </si>
+  <si>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>trading_size</t>
   </si>
   <si>
     <t>参数优化空间总数</t>
@@ -110,6 +119,12 @@
     <t>参数6</t>
   </si>
   <si>
+    <t>参数7</t>
+  </si>
+  <si>
+    <t>参数8</t>
+  </si>
+  <si>
     <t>总收益率</t>
   </si>
   <si>
@@ -197,35 +212,42 @@
     <t xml:space="preserve"> 'boll_dev'</t>
   </si>
   <si>
+    <t xml:space="preserve"> 'atr_window'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'risk_level'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'sl_multiplier'</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 'dis_open'</t>
   </si>
   <si>
     <t xml:space="preserve"> 'interval'</t>
   </si>
   <si>
-    <t xml:space="preserve"> 'atr_window'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'sl_multiplier'</t>
+    <t xml:space="preserve"> 'trading_size'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="11">
     <numFmt numFmtId="176" formatCode="#,##0.000000_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="179" formatCode="#,##0&quot;组&quot;"/>
-    <numFmt numFmtId="180" formatCode="#,##0.00&quot;小时&quot;"/>
-    <numFmt numFmtId="181" formatCode="#,##0.00&quot;天&quot;"/>
+    <numFmt numFmtId="180" formatCode="#,##0.0000_ "/>
+    <numFmt numFmtId="181" formatCode="#,##0.00&quot;小时&quot;"/>
+    <numFmt numFmtId="182" formatCode="#,##0.00&quot;天&quot;"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -250,6 +272,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -265,7 +293,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,30 +322,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,9 +343,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,7 +367,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,7 +375,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,15 +420,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,7 +430,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,19 +457,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,67 +625,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,91 +637,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,17 +741,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,15 +800,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -795,6 +808,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -803,10 +831,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -815,137 +843,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -970,6 +998,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -979,13 +1010,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -997,8 +1031,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1006,11 +1046,20 @@
     <xf numFmtId="179" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1334,225 +1383,267 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="5.46666666666667" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.46666666666667" style="14" customWidth="1"/>
     <col min="2" max="2" width="25.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="12.4416666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.975" customWidth="1"/>
-    <col min="5" max="5" width="12.8333333333333" customWidth="1"/>
-    <col min="6" max="6" width="21.6" customWidth="1"/>
+    <col min="3" max="3" width="7.375" customWidth="1"/>
+    <col min="4" max="4" width="5.375" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
     <col min="8" max="8" width="11.6"/>
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="15">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="19">
         <v>3</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="19">
         <v>3</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="19">
         <v>60</v>
       </c>
-      <c r="F3" s="15">
-        <f>((E3-C3)/D3)+1</f>
+      <c r="F3" s="19">
+        <f t="shared" ref="F3:F10" si="0">((E3-C3)/D3)+1</f>
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="15">
-        <v>2</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="17">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18">
-        <v>2</v>
-      </c>
-      <c r="D4" s="18">
-        <v>2</v>
-      </c>
-      <c r="E4" s="18">
+      <c r="C4" s="21">
+        <v>2</v>
+      </c>
+      <c r="D4" s="21">
+        <v>2</v>
+      </c>
+      <c r="E4" s="21">
         <v>10</v>
       </c>
-      <c r="F4" s="18">
-        <f>((E4-C4)/D4)+1</f>
+      <c r="F4" s="21">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="15">
+      <c r="A5" s="17">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="15">
-        <v>2</v>
-      </c>
-      <c r="D5" s="15">
-        <v>2</v>
-      </c>
-      <c r="E5" s="15">
+      <c r="C5" s="19">
+        <v>2</v>
+      </c>
+      <c r="D5" s="19">
+        <v>2</v>
+      </c>
+      <c r="E5" s="19">
+        <v>30</v>
+      </c>
+      <c r="F5" s="19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="17">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="15">
-        <f t="shared" ref="F3:F8" si="0">((E5-C5)/D5)+1</f>
+      <c r="C6" s="19">
+        <v>50</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1</v>
+      </c>
+      <c r="E6" s="19">
+        <v>50</v>
+      </c>
+      <c r="F6" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="17">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="15">
-        <v>4</v>
-      </c>
-      <c r="B6" s="17" t="s">
+      <c r="B7" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="19">
+        <v>6</v>
+      </c>
+      <c r="F7" s="19">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="17">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="19">
+        <v>2</v>
+      </c>
+      <c r="D8" s="19">
+        <v>2</v>
+      </c>
+      <c r="E8" s="19">
+        <v>20</v>
+      </c>
+      <c r="F8" s="19">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C6" s="18">
-        <v>2</v>
-      </c>
-      <c r="D6" s="18">
-        <v>2</v>
-      </c>
-      <c r="E6" s="18">
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="17">
+        <v>7</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="21">
+        <v>2</v>
+      </c>
+      <c r="D9" s="21">
+        <v>2</v>
+      </c>
+      <c r="E9" s="21">
         <v>60</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F9" s="19">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="15">
-        <v>5</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="15">
-        <v>3</v>
-      </c>
-      <c r="D7" s="15">
+    <row r="10" spans="1:6">
+      <c r="A10" s="17">
+        <v>8</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="19">
         <v>1</v>
       </c>
-      <c r="E7" s="15">
-        <v>30</v>
-      </c>
-      <c r="F7" s="15">
+      <c r="D10" s="19">
+        <v>1</v>
+      </c>
+      <c r="E10" s="19">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="15">
-        <v>6</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="18">
-        <v>6</v>
-      </c>
-      <c r="F8" s="18">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19">
-        <f>PRODUCT(F3:F8)</f>
-        <v>23520000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="20">
-        <f>(F9*1.9)/3600</f>
-        <v>12413.3333333333</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:6">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="21">
-        <f>F10/24</f>
-        <v>517.222222222222</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23">
+        <f>PRODUCT(F3:F10)</f>
+        <v>22950000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="24">
+        <f>(F11*1.9)/3600</f>
+        <v>12112.5</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:6">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="25">
+        <f>F12/24</f>
+        <v>504.6875</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E11"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E13"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1562,13 +1653,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT2"/>
+  <dimension ref="A1:AX7"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="3" max="7" width="13.75" customWidth="1"/>
@@ -1582,91 +1673,91 @@
     <col min="16" max="16" width="11.625" customWidth="1"/>
     <col min="17" max="17" width="3.375" customWidth="1"/>
     <col min="18" max="18" width="12.875" customWidth="1"/>
-    <col min="19" max="19" width="3.375" customWidth="1"/>
-    <col min="20" max="20" width="13.75" customWidth="1"/>
+    <col min="19" max="19" width="7.25" customWidth="1"/>
+    <col min="20" max="20" width="10.375" customWidth="1"/>
     <col min="21" max="21" width="3.375" customWidth="1"/>
-    <col min="22" max="22" width="9.375" customWidth="1"/>
-    <col min="24" max="25" width="11.5" customWidth="1"/>
+    <col min="22" max="22" width="11" customWidth="1"/>
+    <col min="23" max="23" width="3.375" customWidth="1"/>
+    <col min="24" max="24" width="13.75" customWidth="1"/>
+    <col min="25" max="25" width="3.375" customWidth="1"/>
     <col min="26" max="26" width="9.375" customWidth="1"/>
-    <col min="27" max="28" width="11.5" customWidth="1"/>
-    <col min="29" max="29" width="9.875" customWidth="1"/>
-    <col min="30" max="31" width="9.875"/>
-    <col min="32" max="32" width="16" customWidth="1"/>
-    <col min="33" max="33" width="9.875"/>
-    <col min="36" max="36" width="13.75"/>
-    <col min="37" max="37" width="11.5" customWidth="1"/>
-    <col min="39" max="39" width="11.5" customWidth="1"/>
+    <col min="28" max="29" width="11.5" customWidth="1"/>
+    <col min="30" max="30" width="9.375" customWidth="1"/>
+    <col min="31" max="32" width="11.5" customWidth="1"/>
+    <col min="33" max="33" width="9.875" customWidth="1"/>
+    <col min="34" max="35" width="9.875"/>
+    <col min="36" max="36" width="16" customWidth="1"/>
+    <col min="37" max="37" width="9.875"/>
+    <col min="40" max="40" width="13.75"/>
     <col min="41" max="41" width="11.5" customWidth="1"/>
-    <col min="42" max="42" width="13.75" customWidth="1"/>
-    <col min="43" max="44" width="11.5" customWidth="1"/>
-    <col min="45" max="45" width="9.375" customWidth="1"/>
-    <col min="46" max="46" width="11.5" customWidth="1"/>
+    <col min="43" max="43" width="11.5" customWidth="1"/>
+    <col min="45" max="45" width="11.5" customWidth="1"/>
+    <col min="46" max="46" width="13.75" customWidth="1"/>
+    <col min="47" max="48" width="11.5" customWidth="1"/>
+    <col min="49" max="49" width="9.375" customWidth="1"/>
+    <col min="50" max="50" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:50">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U1" s="1"/>
       <c r="V1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="W1" s="1"/>
       <c r="X1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Y1" s="1"/>
       <c r="Z1" s="1" t="s">
         <v>34</v>
       </c>
@@ -1730,13 +1821,25 @@
       <c r="AT1" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:46">
+      <c r="AU1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2">
         <v>0.0001</v>
@@ -1754,127 +1857,1060 @@
         <v>50000</v>
       </c>
       <c r="H2" s="5">
-        <v>43951</v>
+        <v>44197</v>
       </c>
       <c r="I2" s="5">
         <v>44315</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="7">
+        <v>12</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="7">
+        <v>2</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="7">
+        <v>2</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>50</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" s="8">
+        <v>5.09</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" s="7">
+        <v>2</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" s="7">
+        <v>6</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="12">
+        <v>0.5937</v>
+      </c>
+      <c r="AA2" s="12">
+        <v>2.2264</v>
+      </c>
+      <c r="AB2" s="26">
+        <v>44211</v>
+      </c>
+      <c r="AC2" s="26">
+        <v>44308</v>
+      </c>
+      <c r="AD2" s="27">
+        <v>64</v>
+      </c>
+      <c r="AE2" s="27">
+        <v>35</v>
+      </c>
+      <c r="AF2" s="27">
+        <v>29</v>
+      </c>
+      <c r="AG2" s="28">
+        <v>50000</v>
+      </c>
+      <c r="AH2" s="28">
+        <v>71925.98</v>
+      </c>
+      <c r="AI2" s="28">
+        <v>-3911.77</v>
+      </c>
+      <c r="AJ2" s="12">
+        <v>-0.0721</v>
+      </c>
+      <c r="AK2" s="28">
+        <f>AH2-AG2</f>
+        <v>21925.98</v>
+      </c>
+      <c r="AL2" s="28">
+        <v>1198.02</v>
+      </c>
+      <c r="AM2" s="28">
+        <v>516</v>
+      </c>
+      <c r="AN2" s="28">
+        <v>11980240</v>
+      </c>
+      <c r="AO2" s="27">
+        <v>126</v>
+      </c>
+      <c r="AP2" s="28">
+        <v>342.59</v>
+      </c>
+      <c r="AQ2" s="28">
+        <v>18.72</v>
+      </c>
+      <c r="AR2" s="28">
+        <v>8.06</v>
+      </c>
+      <c r="AS2" s="28">
+        <v>187191.25</v>
+      </c>
+      <c r="AT2" s="28">
+        <v>1.97</v>
+      </c>
+      <c r="AU2" s="12">
+        <v>0.0057</v>
+      </c>
+      <c r="AV2" s="12">
+        <v>0.0288</v>
+      </c>
+      <c r="AW2" s="27">
+        <v>3.06</v>
+      </c>
+      <c r="AX2" s="28">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="3" spans="10:27">
+      <c r="J3" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="7">
+        <v>15</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="7">
+        <v>2</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="7">
+        <v>24</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>50</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" s="8">
+        <v>4.89999999999999</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="U3" s="7">
+        <v>2</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="W3" s="7">
+        <v>4</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>0.6208</v>
+      </c>
+      <c r="AA3" s="12"/>
+    </row>
+    <row r="4" spans="10:27">
+      <c r="J4" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="7">
+        <v>6</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="7">
+        <v>4</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" s="7">
+        <v>10</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>50</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="S4" s="8">
+        <v>5.39999999999999</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="U4" s="7">
+        <v>2</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="W4" s="7">
+        <v>4</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>0.6448</v>
+      </c>
+      <c r="AA4" s="12"/>
+    </row>
+    <row r="5" spans="8:27">
+      <c r="H5" s="5">
+        <v>44166</v>
+      </c>
+      <c r="I5" s="5">
+        <v>44286</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="7">
+        <v>24</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="7">
+        <v>4</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" s="7">
+        <v>22</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>50</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="S5" s="8">
+        <v>5.4999</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="U5" s="7">
+        <v>12</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="W5" s="7">
+        <v>2</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>0.6589</v>
+      </c>
+      <c r="AA5" s="12">
+        <v>2.2272</v>
+      </c>
+    </row>
+    <row r="6" spans="10:27">
+      <c r="J6" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="7">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="7">
+        <v>2</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" s="7">
+        <v>2</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>50</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="S6" s="8">
+        <v>4.6</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="U6" s="7">
+        <v>4</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="W6" s="7">
+        <v>6</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>0.6786</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>2.2937</v>
+      </c>
+    </row>
+    <row r="7" spans="10:25">
+      <c r="J7" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="7">
+        <v>2</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="7">
+        <v>4</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" s="7">
+        <v>16</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>50</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="S7" s="8">
+        <v>6.69999999999999</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="U7" s="7">
+        <v>14</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="W7" s="7">
+        <v>2</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AX6">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="5.46666666666667" style="14" customWidth="1"/>
+    <col min="2" max="2" width="25.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="7.375" customWidth="1"/>
+    <col min="4" max="4" width="5.375" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="8" max="8" width="11.6"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="19">
+        <v>2</v>
+      </c>
+      <c r="D3" s="19">
+        <v>2</v>
+      </c>
+      <c r="E3" s="19">
+        <v>60</v>
+      </c>
+      <c r="F3" s="19">
+        <f t="shared" ref="F3:F10" si="0">((E3-C3)/D3)+1</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="17">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="21">
+        <v>2</v>
+      </c>
+      <c r="D4" s="21">
+        <v>2</v>
+      </c>
+      <c r="E4" s="21">
+        <v>10</v>
+      </c>
+      <c r="F4" s="21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="17">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="19">
+        <v>2</v>
+      </c>
+      <c r="D5" s="19">
+        <v>2</v>
+      </c>
+      <c r="E5" s="19">
+        <v>30</v>
+      </c>
+      <c r="F5" s="19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="17">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="19">
+        <v>50</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1</v>
+      </c>
+      <c r="E6" s="19">
+        <v>50</v>
+      </c>
+      <c r="F6" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="17">
+        <v>5</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="19">
+        <v>8</v>
+      </c>
+      <c r="F7" s="19">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="17">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="19">
+        <v>2</v>
+      </c>
+      <c r="D8" s="19">
+        <v>2</v>
+      </c>
+      <c r="E8" s="19">
+        <v>20</v>
+      </c>
+      <c r="F8" s="19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="17">
+        <v>7</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="21">
+        <v>2</v>
+      </c>
+      <c r="D9" s="21">
+        <v>1</v>
+      </c>
+      <c r="E9" s="21">
+        <v>50</v>
+      </c>
+      <c r="F9" s="19">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="17">
+        <v>8</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19">
+        <v>1</v>
+      </c>
+      <c r="E10" s="19">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23">
+        <f>PRODUCT(F3:F10)</f>
+        <v>78277500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="24">
+        <f>(F11*1.9)/3600</f>
+        <v>41313.125</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:6">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="25">
+        <f>F12/24</f>
+        <v>1721.38020833333</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E13"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AX3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="3" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="9" width="11.125"/>
+    <col min="10" max="10" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="3.375" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="3.375" customWidth="1"/>
+    <col min="14" max="14" width="9.75" customWidth="1"/>
+    <col min="15" max="15" width="3.375" customWidth="1"/>
+    <col min="16" max="16" width="11.625" customWidth="1"/>
+    <col min="17" max="17" width="3.375" customWidth="1"/>
+    <col min="18" max="18" width="12.875" customWidth="1"/>
+    <col min="19" max="19" width="7.25" customWidth="1"/>
+    <col min="20" max="20" width="10.375" customWidth="1"/>
+    <col min="21" max="21" width="3.375" customWidth="1"/>
+    <col min="22" max="22" width="11" customWidth="1"/>
+    <col min="23" max="23" width="3.375" customWidth="1"/>
+    <col min="24" max="24" width="13.75" customWidth="1"/>
+    <col min="25" max="25" width="3.375" customWidth="1"/>
+    <col min="26" max="26" width="9.375" customWidth="1"/>
+    <col min="28" max="29" width="11.5" customWidth="1"/>
+    <col min="30" max="30" width="9.375" customWidth="1"/>
+    <col min="31" max="32" width="11.5" customWidth="1"/>
+    <col min="33" max="33" width="9.875" customWidth="1"/>
+    <col min="34" max="35" width="9.875"/>
+    <col min="36" max="36" width="16" customWidth="1"/>
+    <col min="37" max="37" width="9.875"/>
+    <col min="40" max="40" width="13.75"/>
+    <col min="41" max="41" width="11.5" customWidth="1"/>
+    <col min="43" max="43" width="11.5" customWidth="1"/>
+    <col min="45" max="45" width="11.5" customWidth="1"/>
+    <col min="46" max="46" width="13.75" customWidth="1"/>
+    <col min="47" max="48" width="11.5" customWidth="1"/>
+    <col min="49" max="49" width="9.375" customWidth="1"/>
+    <col min="50" max="50" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:50">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="7">
-        <v>18</v>
-      </c>
-      <c r="L2" s="7" t="s">
+      <c r="AX1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="7">
-        <v>2</v>
-      </c>
-      <c r="N2" s="7" t="s">
+    </row>
+    <row r="2" spans="1:50">
+      <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="7">
-        <v>6</v>
-      </c>
-      <c r="P2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="C2" s="2">
+        <v>0.0001</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="3">
         <v>10</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>50000</v>
+      </c>
+      <c r="H2" s="5">
+        <v>44197</v>
+      </c>
+      <c r="I2" s="5">
+        <v>44315</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="9">
+        <v>0.5937</v>
+      </c>
+      <c r="AA2" s="9">
+        <v>2.2264</v>
+      </c>
+      <c r="AB2" s="10">
+        <v>44211</v>
+      </c>
+      <c r="AC2" s="10">
+        <v>44308</v>
+      </c>
+      <c r="AD2" s="11">
+        <v>64</v>
+      </c>
+      <c r="AE2" s="11">
+        <v>35</v>
+      </c>
+      <c r="AF2" s="11">
+        <v>29</v>
+      </c>
+      <c r="AG2" s="13">
+        <v>50000</v>
+      </c>
+      <c r="AH2" s="13">
+        <v>71925.98</v>
+      </c>
+      <c r="AI2" s="13">
+        <v>-3911.77</v>
+      </c>
+      <c r="AJ2" s="9">
+        <v>-0.0721</v>
+      </c>
+      <c r="AK2" s="13">
+        <f>AH2-AG2</f>
+        <v>21925.98</v>
+      </c>
+      <c r="AL2" s="13">
+        <v>1198.02</v>
+      </c>
+      <c r="AM2" s="13">
+        <v>516</v>
+      </c>
+      <c r="AN2" s="13">
+        <v>11980240</v>
+      </c>
+      <c r="AO2" s="11">
+        <v>126</v>
+      </c>
+      <c r="AP2" s="13">
+        <v>342.59</v>
+      </c>
+      <c r="AQ2" s="13">
+        <v>18.72</v>
+      </c>
+      <c r="AR2" s="13">
+        <v>8.06</v>
+      </c>
+      <c r="AS2" s="13">
+        <v>187191.25</v>
+      </c>
+      <c r="AT2" s="13">
+        <v>1.97</v>
+      </c>
+      <c r="AU2" s="9">
+        <v>0.0057</v>
+      </c>
+      <c r="AV2" s="9">
+        <v>0.0288</v>
+      </c>
+      <c r="AW2" s="11">
+        <v>3.06</v>
+      </c>
+      <c r="AX2" s="13">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="3" spans="8:27">
+      <c r="H3" s="5">
+        <v>44166</v>
+      </c>
+      <c r="I3" s="5">
+        <v>44286</v>
+      </c>
+      <c r="J3" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="S2" s="7">
-        <v>3</v>
-      </c>
-      <c r="T2" s="7" t="s">
+      <c r="K3" s="7">
+        <v>2</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="7">
-        <v>3.9</v>
-      </c>
-      <c r="V2" s="8">
-        <f>(AD2-AC2)/AC2</f>
-        <v>0.586545</v>
-      </c>
-      <c r="W2" s="8">
-        <v>0.1958</v>
-      </c>
-      <c r="X2" s="9">
-        <v>40193</v>
-      </c>
-      <c r="Y2" s="9">
-        <v>41271</v>
-      </c>
-      <c r="Z2" s="10">
-        <v>719</v>
-      </c>
-      <c r="AA2" s="10">
-        <v>313</v>
-      </c>
-      <c r="AB2" s="10">
-        <v>292</v>
-      </c>
-      <c r="AC2" s="11">
-        <v>50000</v>
-      </c>
-      <c r="AD2" s="11">
-        <v>79327.25</v>
-      </c>
-      <c r="AE2" s="11">
-        <v>-3461.23</v>
-      </c>
-      <c r="AF2" s="8">
-        <v>-0.0478</v>
-      </c>
-      <c r="AG2" s="11">
-        <f>AD2-AC2</f>
-        <v>29327.25</v>
-      </c>
-      <c r="AH2" s="11">
-        <v>1004.75</v>
-      </c>
-      <c r="AI2" s="11">
-        <v>758</v>
-      </c>
-      <c r="AJ2" s="11">
-        <v>10047530</v>
-      </c>
-      <c r="AK2" s="10">
-        <v>376</v>
-      </c>
-      <c r="AL2" s="11">
-        <v>40.79</v>
-      </c>
-      <c r="AM2" s="11">
-        <v>1.4</v>
-      </c>
-      <c r="AN2" s="11">
-        <v>1.05</v>
-      </c>
-      <c r="AO2" s="11">
-        <v>13974.31</v>
-      </c>
-      <c r="AP2" s="11">
-        <v>0.52</v>
-      </c>
-      <c r="AQ2" s="8">
-        <v>0.0006</v>
-      </c>
-      <c r="AR2" s="8">
-        <v>0.0052</v>
-      </c>
-      <c r="AS2" s="10">
-        <v>1.86</v>
-      </c>
-      <c r="AT2" s="11">
-        <v>12.27</v>
+      <c r="M3" s="7">
+        <v>4</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="7">
+        <v>16</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>50</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" s="8">
+        <v>6.69999999999999</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="U3" s="7">
+        <v>14</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="W3" s="7">
+        <v>2</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>0.7534</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>2.5468</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AT2">
+  <autoFilter ref="A1:AX4">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/1-策略开发/1-开发中的策略/14-oscillator_driver/oscillator_drive参数优化记录.xlsx
+++ b/1-策略开发/1-开发中的策略/14-oscillator_driver/oscillator_drive参数优化记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="478" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="478" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1-参数优化区间设置" sheetId="3" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="2-4个月滚动回测结果" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1-4个月滚动回测结果'!$A$1:$AX$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1-4个月滚动回测结果'!$A$1:$AX$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2-4个月滚动回测结果'!$A$1:$AX$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -235,15 +235,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
-    <numFmt numFmtId="176" formatCode="#,##0.000000_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.000000_ "/>
     <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0&quot;组&quot;"/>
-    <numFmt numFmtId="180" formatCode="#,##0.0000_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0.0000_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0&quot;组&quot;"/>
     <numFmt numFmtId="181" formatCode="#,##0.00&quot;小时&quot;"/>
     <numFmt numFmtId="182" formatCode="#,##0.00&quot;天&quot;"/>
   </numFmts>
@@ -293,13 +293,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -308,7 +301,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,23 +321,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,16 +336,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,9 +346,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -422,6 +393,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -435,6 +414,27 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -445,7 +445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="0" tint="-0.5"/>
         <bgColor theme="1"/>
       </patternFill>
     </fill>
@@ -457,79 +457,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,13 +619,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,85 +637,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,6 +727,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -737,15 +752,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,21 +767,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,6 +814,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -831,10 +831,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -843,133 +843,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -980,12 +980,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -998,7 +998,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1043,7 +1043,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1390,7 +1390,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
@@ -1655,8 +1655,8 @@
   <sheetPr/>
   <dimension ref="A1:AX7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="6"/>
@@ -2264,7 +2264,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AX6">
+  <autoFilter ref="A1:AX7">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2275,14 +2275,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
@@ -2334,17 +2334,17 @@
         <v>7</v>
       </c>
       <c r="C3" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="19">
         <v>60</v>
       </c>
       <c r="F3" s="19">
         <f t="shared" ref="F3:F10" si="0">((E3-C3)/D3)+1</f>
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2424,11 +2424,11 @@
         <v>0.1</v>
       </c>
       <c r="E7" s="19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F7" s="19">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2463,14 +2463,14 @@
         <v>2</v>
       </c>
       <c r="D9" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="21">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F9" s="19">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2504,7 +2504,7 @@
       <c r="E11" s="22"/>
       <c r="F11" s="23">
         <f>PRODUCT(F3:F10)</f>
-        <v>78277500</v>
+        <v>40950000</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2517,7 +2517,7 @@
       <c r="E12" s="17"/>
       <c r="F12" s="24">
         <f>(F11*1.9)/3600</f>
-        <v>41313.125</v>
+        <v>21612.5</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:6">
@@ -2528,7 +2528,12 @@
       <c r="E13" s="17"/>
       <c r="F13" s="25">
         <f>F12/24</f>
-        <v>1721.38020833333</v>
+        <v>900.520833333333</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2547,7 +2552,7 @@
   <sheetPr/>
   <dimension ref="A1:AX3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
